--- a/news_titles_urls/kebakaran/Kebakaran.xlsx
+++ b/news_titles_urls/kebakaran/Kebakaran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,604 +444,859 @@
           <t>Link Berita</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Link Gambar</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rumah Kontrakan 26 Pintu Terbakar di Tambora Jakbar, 1 Orang Terluka</t>
+          <t>Kebakaran di Lantai 7 Asrama Polri Jakpus, Tak Ada Korban Jiwa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230521003247-20-951961/rumah-kontrakan-26-pintu-terbakar-di-tambora-jakbar-1-orang-terluka</t>
+          <t>https://www.cnnindonesia.com/nasional/20230523160032-20-953018/kebakaran-di-lantai-7-asrama-polri-jakpus-tak-ada-korban-jiwa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kebakaran Pabrik Plastik Jakbar Tak Ganggu Penerbangan Bandara Soetta</t>
+          <t>20 Orang Tewas dalam Kebakaran Asrama Sekolah di Guyana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230519182630-20-951669/kebakaran-pabrik-plastik-jakbar-tak-ganggu-penerbangan-bandara-soetta</t>
+          <t>https://www.cnnindonesia.com/internasional/20230523013631-134-952688/20-orang-tewas-dalam-kebakaran-asrama-sekolah-di-guyana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-4_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pabrik Plastik di Jakbar Kebakaran, 15 Unit Mobil Damkar Diterjunkan</t>
+          <t>FOTO: Kantor Pos Tertua di Filipina Dilalap Si Jago Merah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230519142448-20-951523/pabrik-plastik-di-jakbar-kebakaran-15-unit-mobil-damkar-diterjunkan</t>
+          <t>https://www.cnnindonesia.com/internasional/20230522114716-108-952350/foto-kantor-pos-tertua-di-filipina-dilalap-si-jago-merah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/05/22/kebakaran-kantor-pos-di-manila-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rumah Tahfiz Al Quran di Makassar Kebakaran Gegara Korsleting</t>
+          <t>VIDEO: Kantor Pos paling Bersejarah Milik Filipina Terbakar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230519025613-20-951311/rumah-tahfiz-al-quran-di-makassar-kebakaran-gegara-korsleting</t>
+          <t>https://www.cnnindonesia.com/tv/20230522170435-401-952577/video-kantor-pos-paling-bersejarah-milik-filipina-terbakar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/05/22/thumbnail-video-16_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kebakaran Landa Lapak Limbah Oli dan Rumah Warga di Tangerang</t>
+          <t>Rumah Kontrakan 26 Pintu Terbakar di Tambora Jakbar, 1 Orang Terluka</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230517213015-20-951056/kebakaran-landa-lapak-limbah-oli-dan-rumah-warga-di-tangerang</t>
+          <t>https://www.cnnindonesia.com/nasional/20230521003247-20-951961/rumah-kontrakan-26-pintu-terbakar-di-tambora-jakbar-1-orang-terluka</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kebakaran Rumah Makan Jasunda BSD, 1 Karyawan Alami Luka Bakar</t>
+          <t>Kebakaran Pabrik Plastik Jakbar Tak Ganggu Penerbangan Bandara Soetta</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230512101855-20-948642/kebakaran-rumah-makan-jasunda-bsd-1-karyawan-alami-luka-bakar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230519182630-20-951669/kebakaran-pabrik-plastik-jakbar-tak-ganggu-penerbangan-bandara-soetta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2015/08/18/857621b5-465f-44cc-b901-a6cab29a835a_169.jpg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RSUD Abepura Papua Kebakaran, Tiga Orang Dilaporkan Tewas</t>
+          <t>Pabrik Plastik di Jakbar Kebakaran, 15 Unit Mobil Damkar Diterjunkan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230509164329-20-947337/rsud-abepura-papua-kebakaran-tiga-orang-dilaporkan-tewas</t>
+          <t>https://www.cnnindonesia.com/nasional/20230519142448-20-951523/pabrik-plastik-di-jakbar-kebakaran-15-unit-mobil-damkar-diterjunkan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Api Masih Berkobar di Lokasi Kebakaran Pabrik Cat Jakut</t>
+          <t>Rumah Tahfiz Al Quran di Makassar Kebakaran Gegara Korsleting</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230508205249-20-946929/api-masih-berkobar-di-lokasi-kebakaran-pabrik-cat-jakut</t>
+          <t>https://www.cnnindonesia.com/nasional/20230519025613-20-951311/rumah-tahfiz-al-quran-di-makassar-kebakaran-gegara-korsleting</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kebakaran di Pabrik Peracik Cat di Jakut, 35 Damkar Dikerahkan</t>
+          <t>Kebakaran Landa Lapak Limbah Oli dan Rumah Warga di Tangerang</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230508183007-20-946880/kebakaran-di-pabrik-peracik-cat-di-jakut-35-damkar-dikerahkan</t>
+          <t>https://www.cnnindonesia.com/nasional/20230517213015-20-951056/kebakaran-landa-lapak-limbah-oli-dan-rumah-warga-di-tangerang</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kerugian Kebakaran Malang Plaza Diperkirakan Capai Rp56 Miliar</t>
+          <t>Kebakaran Rumah Makan Jasunda BSD, 1 Karyawan Alami Luka Bakar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230503193111-20-944926/kerugian-kebakaran-malang-plaza-diperkirakan-capai-rp56-miliar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230512101855-20-948642/kebakaran-rumah-makan-jasunda-bsd-1-karyawan-alami-luka-bakar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2016/06/15/22de3799-3c23-48ec-80fc-a9f30a8fc52a_169.jpg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gudang Makanan di Makassar Terbakar, Diduga Arus Pendek</t>
+          <t>RSUD Abepura Papua Kebakaran, Tiga Orang Dilaporkan Tewas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230503002112-20-944502/gudang-makanan-di-makassar-terbakar-diduga-arus-pendek</t>
+          <t>https://www.cnnindonesia.com/nasional/20230509164329-20-947337/rsud-abepura-papua-kebakaran-tiga-orang-dilaporkan-tewas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polisi Selidiki Sumber Api Kebakaran Gedung Malang Plaza</t>
+          <t>Api Masih Berkobar di Lokasi Kebakaran Pabrik Cat Jakut</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230502232050-20-944499/polisi-selidiki-sumber-api-kebakaran-gedung-malang-plaza</t>
+          <t>https://www.cnnindonesia.com/nasional/20230508205249-20-946929/api-masih-berkobar-di-lokasi-kebakaran-pabrik-cat-jakut</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Asrama Polisi di Manado Kebakaran, Tidak Ada Korban Jiwa</t>
+          <t>Kebakaran di Pabrik Peracik Cat di Jakut, 35 Damkar Dikerahkan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230502191651-20-944461/asrama-polisi-di-manado-kebakaran-tidak-ada-korban-jiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/20230508183007-20-946880/kebakaran-di-pabrik-peracik-cat-di-jakut-35-damkar-dikerahkan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Malang Plaza Terbakar, 15 Unit Mobil Damkar Diterjunkan</t>
+          <t>Kerugian Kebakaran Malang Plaza Diperkirakan Capai Rp56 Miliar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230502085616-12-944106/malang-plaza-terbakar-15-unit-mobil-damkar-diterjunkan</t>
+          <t>https://www.cnnindonesia.com/nasional/20230503193111-20-944926/kerugian-kebakaran-malang-plaza-diperkirakan-capai-rp56-miliar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/7b13c072-c974-43bc-8520-556c8635ae0f_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VIDEO: Detik-detik Kebakaran di Pusat Migran Meksiko Tewaskan 40 Orang</t>
+          <t>Gudang Makanan di Makassar Terbakar, Diduga Arus Pendek</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230428143236-139-943097/video-detik-detik-kebakaran-di-pusat-migran-meksiko-tewaskan-40-orang</t>
+          <t>https://www.cnnindonesia.com/nasional/20230503002112-20-944502/gudang-makanan-di-makassar-terbakar-diduga-arus-pendek</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tiga Hari Semburan Api di Rest Area Tol Cipali Masih Berkobar</t>
+          <t>Polisi Selidiki Sumber Api Kebakaran Gedung Malang Plaza</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230428135404-20-943074/tiga-hari-semburan-api-di-rest-area-tol-cipali-masih-berkobar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230502232050-20-944499/polisi-selidiki-sumber-api-kebakaran-gedung-malang-plaza</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VIDEO: Semburan Api Rest Area Tol Cipali Belum Padam, Pedagang Merugi</t>
+          <t>Asrama Polisi di Manado Kebakaran, Tidak Ada Korban Jiwa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20230428130112-400-943020/video-semburan-api-rest-area-tol-cipali-belum-padam-pedagang-merugi</t>
+          <t>https://www.cnnindonesia.com/nasional/20230502191651-20-944461/asrama-polisi-di-manado-kebakaran-tidak-ada-korban-jiwa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Viral Video Kebakaran di Jakut, Damkar DKI Jakarta Tegaskan Hoaks</t>
+          <t>Malang Plaza Terbakar, 15 Unit Mobil Damkar Diterjunkan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230427193240-20-942816/viral-video-kebakaran-di-jakut-damkar-dki-jakarta-tegaskan-hoaks</t>
+          <t>https://www.cnnindonesia.com/nasional/20230502085616-12-944106/malang-plaza-terbakar-15-unit-mobil-damkar-diterjunkan</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/30/bingkai-sepekan-edisi-1-mei-2022-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Api di Rest Area KM 86 Cipali Masih Berkobar, Pemadaman Belum Selesai</t>
+          <t>VIDEO: Detik-detik Kebakaran di Pusat Migran Meksiko Tewaskan 40 Orang</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230427130633-20-942606/api-di-rest-area-km-86-cipali-masih-berkobar-pemadaman-belum-selesai</t>
+          <t>https://www.cnnindonesia.com/internasional/20230428143236-139-943097/video-detik-detik-kebakaran-di-pusat-migran-meksiko-tewaskan-40-orang</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/28/thumbnail-video-3_169.png?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kebakaran Hebat di Kampung Coklat Blitar, Tak Ada Korban Jiwa</t>
+          <t>Tiga Hari Semburan Api di Rest Area Tol Cipali Masih Berkobar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230426115314-20-942185/kebakaran-hebat-di-kampung-coklat-blitar-tak-ada-korban-jiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/20230428135404-20-943074/tiga-hari-semburan-api-di-rest-area-tol-cipali-masih-berkobar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/26/thumbnail-video_169.png?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FOTO: Permukiman Padat Penduduk di Jakarta Utara Dilalap Si Jago Merah</t>
+          <t>VIDEO: Semburan Api Rest Area Tol Cipali Belum Padam, Pedagang Merugi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230425162427-22-941901/foto-permukiman-padat-penduduk-di-jakarta-utara-dilalap-si-jago-merah</t>
+          <t>https://www.cnnindonesia.com/tv/20230428130112-400-943020/video-semburan-api-rest-area-tol-cipali-belum-padam-pedagang-merugi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/28/semburan-api-rest-area-tol-cipali-belum-padam-pedagang-merugi_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kebakaran di Jakut Hanguskan Puluhan Rumah, Diduga Korsleting Listrik</t>
+          <t>Viral Video Kebakaran di Jakut, Damkar DKI Jakarta Tegaskan Hoaks</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230425161935-20-941899/kebakaran-di-jakut-hanguskan-puluhan-rumah-diduga-korsleting-listrik</t>
+          <t>https://www.cnnindonesia.com/nasional/20230427193240-20-942816/viral-video-kebakaran-di-jakut-damkar-dki-jakarta-tegaskan-hoaks</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/29/3f62a2dd-a75b-444f-ab46-b520ed17b7b2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TSM Makassar Kebakaran, Api Sudah Berhasil Dipadamkan</t>
+          <t>Api di Rest Area KM 86 Cipali Masih Berkobar, Pemadaman Belum Selesai</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230424195809-20-941640/tsm-makassar-kebakaran-api-sudah-berhasil-dipadamkan</t>
+          <t>https://www.cnnindonesia.com/nasional/20230427130633-20-942606/api-di-rest-area-km-86-cipali-masih-berkobar-pemadaman-belum-selesai</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/21/h-1-lebaran-sepi-pemudik-jalan-tol-japek-dan-rest-area-ramai-pelancong-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kebakaran Lahap Ruko Tiga Lantai di Pasar Sentral Makassar</t>
+          <t>Kebakaran Hebat di Kampung Coklat Blitar, Tak Ada Korban Jiwa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230423193618-20-941263/kebakaran-lahap-ruko-tiga-lantai-di-pasar-sentral-makassar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230426115314-20-942185/kebakaran-hebat-di-kampung-coklat-blitar-tak-ada-korban-jiwa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pilu Muara Angke Dilahap Api Kala Syahdu Takbir, Hingga Lupa Lebaran</t>
+          <t>FOTO: Permukiman Padat Penduduk di Jakarta Utara Dilalap Si Jago Merah</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230423110100-20-941127/pilu-muara-angke-dilahap-api-kala-syahdu-takbir-hingga-lupa-lebaran</t>
+          <t>https://www.cnnindonesia.com/nasional/20230425162427-22-941901/foto-permukiman-padat-penduduk-di-jakarta-utara-dilalap-si-jago-merah</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/25/kebakaran-permukiman-padat-penduduk-di-pademangan-8_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VIDEO: Restoran di Madrid Terbakar, 10 Luka dan 2 Tewas</t>
+          <t>Kebakaran di Jakut Hanguskan Puluhan Rumah, Diduga Korsleting Listrik</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230423073014-139-941077/video-restoran-di-madrid-terbakar-10-luka-dan-2-tewas</t>
+          <t>https://www.cnnindonesia.com/nasional/20230425161935-20-941899/kebakaran-di-jakut-hanguskan-puluhan-rumah-diduga-korsleting-listrik</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/b975a9eb-9565-46d3-9b7f-55cdb2fd8afa_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fakta-fakta Kebakaran di Muara Angke, Isu Korsleting Hingga Nol Korban</t>
+          <t>TSM Makassar Kebakaran, Api Sudah Berhasil Dipadamkan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422205108-20-941036/fakta-fakta-kebakaran-di-muara-angke-isu-korsleting-hingga-nol-korban</t>
+          <t>https://www.cnnindonesia.com/nasional/20230424195809-20-941640/tsm-makassar-kebakaran-api-sudah-berhasil-dipadamkan</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2 Orang Tewas akibat Kebakaran di Restoran Spanyol, 10 Luka-luka</t>
+          <t>Kebakaran Lahap Ruko Tiga Lantai di Pasar Sentral Makassar</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230423014541-134-941049/2-orang-tewas-akibat-kebakaran-di-restoran-spanyol-10-luka-luka</t>
+          <t>https://www.cnnindonesia.com/nasional/20230423193618-20-941263/kebakaran-lahap-ruko-tiga-lantai-di-pasar-sentral-makassar</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>219 Rumah Terbakar di Muara Angke, Petugas Sebut Nihil Korban Jiwa</t>
+          <t>Pilu Muara Angke Dilahap Api Kala Syahdu Takbir, Hingga Lupa Lebaran</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422182429-20-941009/219-rumah-terbakar-di-muara-angke-petugas-sebut-nihil-korban-jiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/20230423110100-20-941127/pilu-muara-angke-dilahap-api-kala-syahdu-takbir-hingga-lupa-lebaran</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-11_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>219 Rumah Terbakar di Muara Angke, Ratusan Warga Mengungsi Sementara</t>
+          <t>VIDEO: Restoran di Madrid Terbakar, 10 Luka dan 2 Tewas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422174638-20-941001/219-rumah-terbakar-di-muara-angke-ratusan-warga-mengungsi-sementara</t>
+          <t>https://www.cnnindonesia.com/internasional/20230423073014-139-941077/video-restoran-di-madrid-terbakar-10-luka-dan-2-tewas</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/23/thumbnail-video_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kebakaran Muara Angke, 162 Warga Dievakuasi</t>
+          <t>Fakta-fakta Kebakaran di Muara Angke, Isu Korsleting Hingga Nol Korban</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422181112-20-941005/kebakaran-muara-angke-162-warga-dievakuasi</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422205108-20-941036/fakta-fakta-kebakaran-di-muara-angke-isu-korsleting-hingga-nol-korban</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-12_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FOTO: Si Jago Merah Lahap Ratusan Rumah di Muara Angke Saat Lebaran</t>
+          <t>2 Orang Tewas akibat Kebakaran di Restoran Spanyol, 10 Luka-luka</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422145806-22-940942/foto-si-jago-merah-lahap-ratusan-rumah-di-muara-angke-saat-lebaran</t>
+          <t>https://www.cnnindonesia.com/internasional/20230423014541-134-941049/2-orang-tewas-akibat-kebakaran-di-restoran-spanyol-10-luka-luka</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VIDEO: Situasi Terkini Ratusan Rumah Muara Angke Usai Terbakar</t>
+          <t>219 Rumah Terbakar di Muara Angke, Petugas Sebut Nihil Korban Jiwa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422144619-24-940938/video-situasi-terkini-ratusan-rumah-muara-angke-usai-terbakar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422182429-20-941009/219-rumah-terbakar-di-muara-angke-petugas-sebut-nihil-korban-jiwa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kebakaran Hanguskan 290 Rumah di Muara Angke, Diduga dari Korsleting</t>
+          <t>219 Rumah Terbakar di Muara Angke, Ratusan Warga Mengungsi Sementara</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422120940-20-940887/kebakaran-hanguskan-290-rumah-di-muara-angke-diduga-dari-korsleting</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422174638-20-941001/219-rumah-terbakar-di-muara-angke-ratusan-warga-mengungsi-sementara</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7 Rumah di Surabaya Terbakar di Malam Takbiran</t>
+          <t>Kebakaran Muara Angke, 162 Warga Dievakuasi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230421205151-20-940763/7-rumah-di-surabaya-terbakar-di-malam-takbiran</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422181112-20-941005/kebakaran-muara-angke-162-warga-dievakuasi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-11_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kebakaran di Senayan City Disebut Berasal dari Kabel Listrik</t>
+          <t>FOTO: Si Jago Merah Lahap Ratusan Rumah di Muara Angke Saat Lebaran</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420214441-20-940378/kebakaran-di-senayan-city-disebut-berasal-dari-kabel-listrik</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422145806-22-940942/foto-si-jago-merah-lahap-ratusan-rumah-di-muara-angke-saat-lebaran</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-15_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kesaksian Pengunjung Senayan City: Asap Ngebul dari Restoran di LG</t>
+          <t>VIDEO: Situasi Terkini Ratusan Rumah Muara Angke Usai Terbakar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420201315-20-940370/kesaksian-pengunjung-senayan-city-asap-ngebul-dari-restoran-di-lg</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422144619-24-940938/video-situasi-terkini-ratusan-rumah-muara-angke-usai-terbakar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/thumbnail-video-5_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>VIDEO: Momen Evakuasi Pengunjung saat Kebakaran di Senayan City</t>
+          <t>Kebakaran Hanguskan 290 Rumah di Muara Angke, Diduga dari Korsleting</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420194025-24-940355/video-momen-evakuasi-pengunjung-saat-kebakaran-di-senayan-city</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422120940-20-940887/kebakaran-hanguskan-290-rumah-di-muara-angke-diduga-dari-korsleting</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-muara-angke_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kebakaran Senayan City, Pengunjung Berlarian ke Tangga Darurat</t>
+          <t>7 Rumah di Surabaya Terbakar di Malam Takbiran</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420192709-20-940351/kebakaran-senayan-city-pengunjung-berlarian-ke-tangga-darurat</t>
+          <t>https://www.cnnindonesia.com/nasional/20230421205151-20-940763/7-rumah-di-surabaya-terbakar-di-malam-takbiran</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2017/01/29/b05d3386-af33-4f1e-91fa-3c0f499dc9b0_169.jpg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Senayan City Kebakaran, Pengunjung Mal Dievakuasi</t>
+          <t>Kebakaran di Senayan City Disebut Berasal dari Kabel Listrik</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420190751-20-940346/senayan-city-kebakaran-pengunjung-mal-dievakuasi</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420214441-20-940378/kebakaran-di-senayan-city-disebut-berasal-dari-kabel-listrik</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Korban Tewas Kebakaran RS Beijing Jadi 29 Orang, Sebagian Besar Lansia</t>
+          <t>Kesaksian Pengunjung Senayan City: Asap Ngebul dari Restoran di LG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230419154914-113-939862/korban-tewas-kebakaran-rs-beijing-jadi-29-orang-sebagian-besar-lansia</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420201315-20-940370/kesaksian-pengunjung-senayan-city-asap-ngebul-dari-restoran-di-lg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/12/03/8475b1f4-5e67-4883-9ac9-9977d5f458c1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16 Unit Damkar Padamkan Kebakaran KM Samudra Anugrah di Surabaya</t>
+          <t>VIDEO: Momen Evakuasi Pengunjung saat Kebakaran di Senayan City</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230419133743-20-939789/16-unit-damkar-padamkan-kebakaran-km-samudra-anugrah-di-surabaya</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420194025-24-940355/video-momen-evakuasi-pengunjung-saat-kebakaran-di-senayan-city</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/20/thumbnail-video-8_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kebakaran di Rumah Sakit Beijing China, 21 Orang Tewas</t>
+          <t>Kebakaran Senayan City, Pengunjung Berlarian ke Tangga Darurat</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230418204537-113-939562/kebakaran-di-rumah-sakit-beijing-china-21-orang-tewas</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420192709-20-940351/kebakaran-senayan-city-pengunjung-berlarian-ke-tangga-darurat</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kebakaran Satu Rumah di Medan, 6 Orang Meninggal Dunia</t>
+          <t>Senayan City Kebakaran, Pengunjung Mal Dievakuasi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230418105048-20-939173/kebakaran-satu-rumah-di-medan-6-orang-meninggal-dunia</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420190751-20-940346/senayan-city-kebakaran-pengunjung-mal-dievakuasi</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VIDEO: Rumah Tingkat Terbakar, 12 Mobil Damkar Diterjunkan</t>
+          <t>Korban Tewas Kebakaran RS Beijing Jadi 29 Orang, Sebagian Besar Lansia</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20230412171302-407-936902/video-rumah-tingkat-terbakar-12-mobil-damkar-diterjunkan</t>
+          <t>https://www.cnnindonesia.com/internasional/20230419154914-113-939862/korban-tewas-kebakaran-rs-beijing-jadi-29-orang-sebagian-besar-lansia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/19/kebakaran-rumah-sakit-beijing-tewaskan-21-orang-5_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Resto Ayam Geprek di Tebet Kebakaran Usai Penggantian Tabung Gas</t>
+          <t>16 Unit Damkar Padamkan Kebakaran KM Samudra Anugrah di Surabaya</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230410224432-20-935934/resto-ayam-geprek-di-tebet-kebakaran-usai-penggantian-tabung-gas</t>
+          <t>https://www.cnnindonesia.com/nasional/20230419133743-20-939789/16-unit-damkar-padamkan-kebakaran-km-samudra-anugrah-di-surabaya</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/19/km-samudra-anugrah-terbakar-saat-perbaikan-di-pt-dok-3_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kebakaran Gudang Kimia di Hamburg, Warga Diperingati soal Asap Beracun</t>
+          <t>Kebakaran di Rumah Sakit Beijing China, 21 Orang Tewas</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230410032044-134-935450/kebakaran-gudang-kimia-di-hamburg-warga-diperingati-soal-asap-beracun</t>
+          <t>https://www.cnnindonesia.com/internasional/20230418204537-113-939562/kebakaran-di-rumah-sakit-beijing-china-21-orang-tewas</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/10/17/ilustrasi-kebakaran_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Danrem: Kebakaran Kantor Bupati Dogiyai Diduga Akibat Korsleting</t>
+          <t>Kebakaran Satu Rumah di Medan, 6 Orang Meninggal Dunia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230409003928-20-935207/danrem-kebakaran-kantor-bupati-dogiyai-diduga-akibat-korsleting</t>
+          <t>https://www.cnnindonesia.com/nasional/20230418105048-20-939173/kebakaran-satu-rumah-di-medan-6-orang-meninggal-dunia</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/18/kebakaran-rumah-di-medan-6-orang-tewas-terpanggang_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kantor Bupati Dogiyai Papua Tengah Dilanda Kebakaran</t>
+          <t>VIDEO: Rumah Tingkat Terbakar, 12 Mobil Damkar Diterjunkan</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230408132609-20-935098/kantor-bupati-dogiyai-papua-tengah-dilanda-kebakaran</t>
+          <t>https://www.cnnindonesia.com/tv/20230412171302-407-936902/video-rumah-tingkat-terbakar-12-mobil-damkar-diterjunkan</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/12/rumah-tingkat-terbakar-12-mobil-damkar-diterjunkan_169.png?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kebakaran Landa Permukiman di Pademangan, 300 Orang Mengungsi</t>
+          <t>Resto Ayam Geprek di Tebet Kebakaran Usai Penggantian Tabung Gas</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230408064637-20-935013/kebakaran-landa-permukiman-di-pademangan-300-orang-mengungsi</t>
+          <t>https://www.cnnindonesia.com/nasional/20230410224432-20-935934/resto-ayam-geprek-di-tebet-kebakaran-usai-penggantian-tabung-gas</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/04/10/kebakaran-di-tebet-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>

--- a/news_titles_urls/kebakaran/Kebakaran.xlsx
+++ b/news_titles_urls/kebakaran/Kebakaran.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Judul Berita Kebakaran Halaman 1</t>
+          <t>Judul Berita</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -453,850 +453,850 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kebakaran di Lantai 7 Asrama Polri Jakpus, Tak Ada Korban Jiwa</t>
+          <t>Jenuh Mondok, 3 Santri Bakar Asrama Tahfiz Al-Quran di Makassar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230523160032-20-953018/kebakaran-di-lantai-7-asrama-polri-jakpus-tak-ada-korban-jiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/20230525180752-12-954086/jenuh-mondok-3-santri-bakar-asrama-tahfiz-al-quran-di-makassar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/70666114-61c6-4935-a290-b5f30fea1405_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20 Orang Tewas dalam Kebakaran Asrama Sekolah di Guyana</t>
+          <t>VIDEO: Detik-detik Gedung Runtuh usai Dilahap Api di Sydney Australia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230523013631-134-952688/20-orang-tewas-dalam-kebakaran-asrama-sekolah-di-guyana</t>
+          <t>https://www.cnnindonesia.com/internasional/20230525192518-117-954114/video-detik-detik-gedung-runtuh-usai-dilahap-api-di-sydney-australia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-4_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/05/25/thumbnail-video-16_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FOTO: Kantor Pos Tertua di Filipina Dilalap Si Jago Merah</t>
+          <t>Kemhan Rusia Dilaporkan Kebakaran, Moskow Buka Suara</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230522114716-108-952350/foto-kantor-pos-tertua-di-filipina-dilalap-si-jago-merah</t>
+          <t>https://www.cnnindonesia.com/internasional/20230525162055-134-954032/kemhan-rusia-dilaporkan-kebakaran-moskow-buka-suara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/05/22/kebakaran-kantor-pos-di-manila-2_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/05/04/istana-kremlin_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VIDEO: Kantor Pos paling Bersejarah Milik Filipina Terbakar</t>
+          <t>Kebakaran di Lantai 7 Asrama Polri Jakpus, Tak Ada Korban Jiwa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20230522170435-401-952577/video-kantor-pos-paling-bersejarah-milik-filipina-terbakar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230523160032-20-953018/kebakaran-di-lantai-7-asrama-polri-jakpus-tak-ada-korban-jiwa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/05/22/thumbnail-video-16_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rumah Kontrakan 26 Pintu Terbakar di Tambora Jakbar, 1 Orang Terluka</t>
+          <t>20 Orang Tewas dalam Kebakaran Asrama Sekolah di Guyana</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230521003247-20-951961/rumah-kontrakan-26-pintu-terbakar-di-tambora-jakbar-1-orang-terluka</t>
+          <t>https://www.cnnindonesia.com/internasional/20230523013631-134-952688/20-orang-tewas-dalam-kebakaran-asrama-sekolah-di-guyana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-4_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kebakaran Pabrik Plastik Jakbar Tak Ganggu Penerbangan Bandara Soetta</t>
+          <t>FOTO: Kantor Pos Tertua di Filipina Dilalap Si Jago Merah</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230519182630-20-951669/kebakaran-pabrik-plastik-jakbar-tak-ganggu-penerbangan-bandara-soetta</t>
+          <t>https://www.cnnindonesia.com/internasional/20230522114716-108-952350/foto-kantor-pos-tertua-di-filipina-dilalap-si-jago-merah</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2015/08/18/857621b5-465f-44cc-b901-a6cab29a835a_169.jpg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/05/22/kebakaran-kantor-pos-di-manila-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pabrik Plastik di Jakbar Kebakaran, 15 Unit Mobil Damkar Diterjunkan</t>
+          <t>VIDEO: Kantor Pos paling Bersejarah Milik Filipina Terbakar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230519142448-20-951523/pabrik-plastik-di-jakbar-kebakaran-15-unit-mobil-damkar-diterjunkan</t>
+          <t>https://www.cnnindonesia.com/tv/20230522170435-401-952577/video-kantor-pos-paling-bersejarah-milik-filipina-terbakar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/05/22/thumbnail-video-16_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rumah Tahfiz Al Quran di Makassar Kebakaran Gegara Korsleting</t>
+          <t>Rumah Kontrakan 26 Pintu Terbakar di Tambora Jakbar, 1 Orang Terluka</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230519025613-20-951311/rumah-tahfiz-al-quran-di-makassar-kebakaran-gegara-korsleting</t>
+          <t>https://www.cnnindonesia.com/nasional/20230521003247-20-951961/rumah-kontrakan-26-pintu-terbakar-di-tambora-jakbar-1-orang-terluka</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kebakaran Landa Lapak Limbah Oli dan Rumah Warga di Tangerang</t>
+          <t>Kebakaran Pabrik Plastik Jakbar Tak Ganggu Penerbangan Bandara Soetta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230517213015-20-951056/kebakaran-landa-lapak-limbah-oli-dan-rumah-warga-di-tangerang</t>
+          <t>https://www.cnnindonesia.com/nasional/20230519182630-20-951669/kebakaran-pabrik-plastik-jakbar-tak-ganggu-penerbangan-bandara-soetta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-2_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2015/08/18/857621b5-465f-44cc-b901-a6cab29a835a_169.jpg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kebakaran Rumah Makan Jasunda BSD, 1 Karyawan Alami Luka Bakar</t>
+          <t>Pabrik Plastik di Jakbar Kebakaran, 15 Unit Mobil Damkar Diterjunkan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230512101855-20-948642/kebakaran-rumah-makan-jasunda-bsd-1-karyawan-alami-luka-bakar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230519142448-20-951523/pabrik-plastik-di-jakbar-kebakaran-15-unit-mobil-damkar-diterjunkan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2016/06/15/22de3799-3c23-48ec-80fc-a9f30a8fc52a_169.jpg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RSUD Abepura Papua Kebakaran, Tiga Orang Dilaporkan Tewas</t>
+          <t>Rumah Tahfiz Al Quran di Makassar Kebakaran Gegara Korsleting</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230509164329-20-947337/rsud-abepura-papua-kebakaran-tiga-orang-dilaporkan-tewas</t>
+          <t>https://www.cnnindonesia.com/nasional/20230519025613-20-951311/rumah-tahfiz-al-quran-di-makassar-kebakaran-gegara-korsleting</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-1_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Api Masih Berkobar di Lokasi Kebakaran Pabrik Cat Jakut</t>
+          <t>Kebakaran Landa Lapak Limbah Oli dan Rumah Warga di Tangerang</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230508205249-20-946929/api-masih-berkobar-di-lokasi-kebakaran-pabrik-cat-jakut</t>
+          <t>https://www.cnnindonesia.com/nasional/20230517213015-20-951056/kebakaran-landa-lapak-limbah-oli-dan-rumah-warga-di-tangerang</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kebakaran di Pabrik Peracik Cat di Jakut, 35 Damkar Dikerahkan</t>
+          <t>Kebakaran Rumah Makan Jasunda BSD, 1 Karyawan Alami Luka Bakar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230508183007-20-946880/kebakaran-di-pabrik-peracik-cat-di-jakut-35-damkar-dikerahkan</t>
+          <t>https://www.cnnindonesia.com/nasional/20230512101855-20-948642/kebakaran-rumah-makan-jasunda-bsd-1-karyawan-alami-luka-bakar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-2_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2016/06/15/22de3799-3c23-48ec-80fc-a9f30a8fc52a_169.jpg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kerugian Kebakaran Malang Plaza Diperkirakan Capai Rp56 Miliar</t>
+          <t>RSUD Abepura Papua Kebakaran, Tiga Orang Dilaporkan Tewas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230503193111-20-944926/kerugian-kebakaran-malang-plaza-diperkirakan-capai-rp56-miliar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230509164329-20-947337/rsud-abepura-papua-kebakaran-tiga-orang-dilaporkan-tewas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2019/10/22/7b13c072-c974-43bc-8520-556c8635ae0f_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gudang Makanan di Makassar Terbakar, Diduga Arus Pendek</t>
+          <t>Api Masih Berkobar di Lokasi Kebakaran Pabrik Cat Jakut</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230503002112-20-944502/gudang-makanan-di-makassar-terbakar-diduga-arus-pendek</t>
+          <t>https://www.cnnindonesia.com/nasional/20230508205249-20-946929/api-masih-berkobar-di-lokasi-kebakaran-pabrik-cat-jakut</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Polisi Selidiki Sumber Api Kebakaran Gedung Malang Plaza</t>
+          <t>Kebakaran di Pabrik Peracik Cat di Jakut, 35 Damkar Dikerahkan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230502232050-20-944499/polisi-selidiki-sumber-api-kebakaran-gedung-malang-plaza</t>
+          <t>https://www.cnnindonesia.com/nasional/20230508183007-20-946880/kebakaran-di-pabrik-peracik-cat-di-jakut-35-damkar-dikerahkan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Asrama Polisi di Manado Kebakaran, Tidak Ada Korban Jiwa</t>
+          <t>Kerugian Kebakaran Malang Plaza Diperkirakan Capai Rp56 Miliar</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230502191651-20-944461/asrama-polisi-di-manado-kebakaran-tidak-ada-korban-jiwa</t>
+          <t>https://www.cnnindonesia.com/nasional/20230503193111-20-944926/kerugian-kebakaran-malang-plaza-diperkirakan-capai-rp56-miliar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/7b13c072-c974-43bc-8520-556c8635ae0f_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Malang Plaza Terbakar, 15 Unit Mobil Damkar Diterjunkan</t>
+          <t>Gudang Makanan di Makassar Terbakar, Diduga Arus Pendek</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230502085616-12-944106/malang-plaza-terbakar-15-unit-mobil-damkar-diterjunkan</t>
+          <t>https://www.cnnindonesia.com/nasional/20230503002112-20-944502/gudang-makanan-di-makassar-terbakar-diduga-arus-pendek</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/30/bingkai-sepekan-edisi-1-mei-2022-1_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VIDEO: Detik-detik Kebakaran di Pusat Migran Meksiko Tewaskan 40 Orang</t>
+          <t>Polisi Selidiki Sumber Api Kebakaran Gedung Malang Plaza</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230428143236-139-943097/video-detik-detik-kebakaran-di-pusat-migran-meksiko-tewaskan-40-orang</t>
+          <t>https://www.cnnindonesia.com/nasional/20230502232050-20-944499/polisi-selidiki-sumber-api-kebakaran-gedung-malang-plaza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/28/thumbnail-video-3_169.png?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tiga Hari Semburan Api di Rest Area Tol Cipali Masih Berkobar</t>
+          <t>Asrama Polisi di Manado Kebakaran, Tidak Ada Korban Jiwa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230428135404-20-943074/tiga-hari-semburan-api-di-rest-area-tol-cipali-masih-berkobar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230502191651-20-944461/asrama-polisi-di-manado-kebakaran-tidak-ada-korban-jiwa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/26/thumbnail-video_169.png?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VIDEO: Semburan Api Rest Area Tol Cipali Belum Padam, Pedagang Merugi</t>
+          <t>Malang Plaza Terbakar, 15 Unit Mobil Damkar Diterjunkan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20230428130112-400-943020/video-semburan-api-rest-area-tol-cipali-belum-padam-pedagang-merugi</t>
+          <t>https://www.cnnindonesia.com/nasional/20230502085616-12-944106/malang-plaza-terbakar-15-unit-mobil-damkar-diterjunkan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/28/semburan-api-rest-area-tol-cipali-belum-padam-pedagang-merugi_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/30/bingkai-sepekan-edisi-1-mei-2022-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Viral Video Kebakaran di Jakut, Damkar DKI Jakarta Tegaskan Hoaks</t>
+          <t>VIDEO: Detik-detik Kebakaran di Pusat Migran Meksiko Tewaskan 40 Orang</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230427193240-20-942816/viral-video-kebakaran-di-jakut-damkar-dki-jakarta-tegaskan-hoaks</t>
+          <t>https://www.cnnindonesia.com/internasional/20230428143236-139-943097/video-detik-detik-kebakaran-di-pusat-migran-meksiko-tewaskan-40-orang</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/29/3f62a2dd-a75b-444f-ab46-b520ed17b7b2_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/28/thumbnail-video-3_169.png?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Api di Rest Area KM 86 Cipali Masih Berkobar, Pemadaman Belum Selesai</t>
+          <t>Tiga Hari Semburan Api di Rest Area Tol Cipali Masih Berkobar</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230427130633-20-942606/api-di-rest-area-km-86-cipali-masih-berkobar-pemadaman-belum-selesai</t>
+          <t>https://www.cnnindonesia.com/nasional/20230428135404-20-943074/tiga-hari-semburan-api-di-rest-area-tol-cipali-masih-berkobar</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/21/h-1-lebaran-sepi-pemudik-jalan-tol-japek-dan-rest-area-ramai-pelancong-1_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/26/thumbnail-video_169.png?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kebakaran Hebat di Kampung Coklat Blitar, Tak Ada Korban Jiwa</t>
+          <t>VIDEO: Semburan Api Rest Area Tol Cipali Belum Padam, Pedagang Merugi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230426115314-20-942185/kebakaran-hebat-di-kampung-coklat-blitar-tak-ada-korban-jiwa</t>
+          <t>https://www.cnnindonesia.com/tv/20230428130112-400-943020/video-semburan-api-rest-area-tol-cipali-belum-padam-pedagang-merugi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-1_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/28/semburan-api-rest-area-tol-cipali-belum-padam-pedagang-merugi_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FOTO: Permukiman Padat Penduduk di Jakarta Utara Dilalap Si Jago Merah</t>
+          <t>Viral Video Kebakaran di Jakut, Damkar DKI Jakarta Tegaskan Hoaks</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230425162427-22-941901/foto-permukiman-padat-penduduk-di-jakarta-utara-dilalap-si-jago-merah</t>
+          <t>https://www.cnnindonesia.com/nasional/20230427193240-20-942816/viral-video-kebakaran-di-jakut-damkar-dki-jakarta-tegaskan-hoaks</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/25/kebakaran-permukiman-padat-penduduk-di-pademangan-8_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/29/3f62a2dd-a75b-444f-ab46-b520ed17b7b2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kebakaran di Jakut Hanguskan Puluhan Rumah, Diduga Korsleting Listrik</t>
+          <t>Api di Rest Area KM 86 Cipali Masih Berkobar, Pemadaman Belum Selesai</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230425161935-20-941899/kebakaran-di-jakut-hanguskan-puluhan-rumah-diduga-korsleting-listrik</t>
+          <t>https://www.cnnindonesia.com/nasional/20230427130633-20-942606/api-di-rest-area-km-86-cipali-masih-berkobar-pemadaman-belum-selesai</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2019/10/22/b975a9eb-9565-46d3-9b7f-55cdb2fd8afa_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/21/h-1-lebaran-sepi-pemudik-jalan-tol-japek-dan-rest-area-ramai-pelancong-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TSM Makassar Kebakaran, Api Sudah Berhasil Dipadamkan</t>
+          <t>Kebakaran Hebat di Kampung Coklat Blitar, Tak Ada Korban Jiwa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230424195809-20-941640/tsm-makassar-kebakaran-api-sudah-berhasil-dipadamkan</t>
+          <t>https://www.cnnindonesia.com/nasional/20230426115314-20-942185/kebakaran-hebat-di-kampung-coklat-blitar-tak-ada-korban-jiwa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2021/07/19/ilustrasi-kebakaran-1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kebakaran Lahap Ruko Tiga Lantai di Pasar Sentral Makassar</t>
+          <t>FOTO: Permukiman Padat Penduduk di Jakarta Utara Dilalap Si Jago Merah</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230423193618-20-941263/kebakaran-lahap-ruko-tiga-lantai-di-pasar-sentral-makassar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230425162427-22-941901/foto-permukiman-padat-penduduk-di-jakarta-utara-dilalap-si-jago-merah</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/25/kebakaran-permukiman-padat-penduduk-di-pademangan-8_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pilu Muara Angke Dilahap Api Kala Syahdu Takbir, Hingga Lupa Lebaran</t>
+          <t>Kebakaran di Jakut Hanguskan Puluhan Rumah, Diduga Korsleting Listrik</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230423110100-20-941127/pilu-muara-angke-dilahap-api-kala-syahdu-takbir-hingga-lupa-lebaran</t>
+          <t>https://www.cnnindonesia.com/nasional/20230425161935-20-941899/kebakaran-di-jakut-hanguskan-puluhan-rumah-diduga-korsleting-listrik</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-11_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/b975a9eb-9565-46d3-9b7f-55cdb2fd8afa_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VIDEO: Restoran di Madrid Terbakar, 10 Luka dan 2 Tewas</t>
+          <t>TSM Makassar Kebakaran, Api Sudah Berhasil Dipadamkan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230423073014-139-941077/video-restoran-di-madrid-terbakar-10-luka-dan-2-tewas</t>
+          <t>https://www.cnnindonesia.com/nasional/20230424195809-20-941640/tsm-makassar-kebakaran-api-sudah-berhasil-dipadamkan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/23/thumbnail-video_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fakta-fakta Kebakaran di Muara Angke, Isu Korsleting Hingga Nol Korban</t>
+          <t>Kebakaran Lahap Ruko Tiga Lantai di Pasar Sentral Makassar</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422205108-20-941036/fakta-fakta-kebakaran-di-muara-angke-isu-korsleting-hingga-nol-korban</t>
+          <t>https://www.cnnindonesia.com/nasional/20230423193618-20-941263/kebakaran-lahap-ruko-tiga-lantai-di-pasar-sentral-makassar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-12_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2 Orang Tewas akibat Kebakaran di Restoran Spanyol, 10 Luka-luka</t>
+          <t>Pilu Muara Angke Dilahap Api Kala Syahdu Takbir, Hingga Lupa Lebaran</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230423014541-134-941049/2-orang-tewas-akibat-kebakaran-di-restoran-spanyol-10-luka-luka</t>
+          <t>https://www.cnnindonesia.com/nasional/20230423110100-20-941127/pilu-muara-angke-dilahap-api-kala-syahdu-takbir-hingga-lupa-lebaran</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-11_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>219 Rumah Terbakar di Muara Angke, Petugas Sebut Nihil Korban Jiwa</t>
+          <t>VIDEO: Restoran di Madrid Terbakar, 10 Luka dan 2 Tewas</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422182429-20-941009/219-rumah-terbakar-di-muara-angke-petugas-sebut-nihil-korban-jiwa</t>
+          <t>https://www.cnnindonesia.com/internasional/20230423073014-139-941077/video-restoran-di-madrid-terbakar-10-luka-dan-2-tewas</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/23/thumbnail-video_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>219 Rumah Terbakar di Muara Angke, Ratusan Warga Mengungsi Sementara</t>
+          <t>Fakta-fakta Kebakaran di Muara Angke, Isu Korsleting Hingga Nol Korban</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422174638-20-941001/219-rumah-terbakar-di-muara-angke-ratusan-warga-mengungsi-sementara</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422205108-20-941036/fakta-fakta-kebakaran-di-muara-angke-isu-korsleting-hingga-nol-korban</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-2_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-12_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kebakaran Muara Angke, 162 Warga Dievakuasi</t>
+          <t>2 Orang Tewas akibat Kebakaran di Restoran Spanyol, 10 Luka-luka</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422181112-20-941005/kebakaran-muara-angke-162-warga-dievakuasi</t>
+          <t>https://www.cnnindonesia.com/internasional/20230423014541-134-941049/2-orang-tewas-akibat-kebakaran-di-restoran-spanyol-10-luka-luka</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-11_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FOTO: Si Jago Merah Lahap Ratusan Rumah di Muara Angke Saat Lebaran</t>
+          <t>219 Rumah Terbakar di Muara Angke, Petugas Sebut Nihil Korban Jiwa</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422145806-22-940942/foto-si-jago-merah-lahap-ratusan-rumah-di-muara-angke-saat-lebaran</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422182429-20-941009/219-rumah-terbakar-di-muara-angke-petugas-sebut-nihil-korban-jiwa</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-15_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VIDEO: Situasi Terkini Ratusan Rumah Muara Angke Usai Terbakar</t>
+          <t>219 Rumah Terbakar di Muara Angke, Ratusan Warga Mengungsi Sementara</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422144619-24-940938/video-situasi-terkini-ratusan-rumah-muara-angke-usai-terbakar</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422174638-20-941001/219-rumah-terbakar-di-muara-angke-ratusan-warga-mengungsi-sementara</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/22/thumbnail-video-5_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-2_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kebakaran Hanguskan 290 Rumah di Muara Angke, Diduga dari Korsleting</t>
+          <t>Kebakaran Muara Angke, 162 Warga Dievakuasi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230422120940-20-940887/kebakaran-hanguskan-290-rumah-di-muara-angke-diduga-dari-korsleting</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422181112-20-941005/kebakaran-muara-angke-162-warga-dievakuasi</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-muara-angke_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-11_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7 Rumah di Surabaya Terbakar di Malam Takbiran</t>
+          <t>FOTO: Si Jago Merah Lahap Ratusan Rumah di Muara Angke Saat Lebaran</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230421205151-20-940763/7-rumah-di-surabaya-terbakar-di-malam-takbiran</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422145806-22-940942/foto-si-jago-merah-lahap-ratusan-rumah-di-muara-angke-saat-lebaran</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2017/01/29/b05d3386-af33-4f1e-91fa-3c0f499dc9b0_169.jpg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-hanguskan-290-rumah-di-muara-angke-saat-idul-fitri-15_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kebakaran di Senayan City Disebut Berasal dari Kabel Listrik</t>
+          <t>VIDEO: Situasi Terkini Ratusan Rumah Muara Angke Usai Terbakar</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420214441-20-940378/kebakaran-di-senayan-city-disebut-berasal-dari-kabel-listrik</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422144619-24-940938/video-situasi-terkini-ratusan-rumah-muara-angke-usai-terbakar</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/thumbnail-video-5_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kesaksian Pengunjung Senayan City: Asap Ngebul dari Restoran di LG</t>
+          <t>Kebakaran Hanguskan 290 Rumah di Muara Angke, Diduga dari Korsleting</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420201315-20-940370/kesaksian-pengunjung-senayan-city-asap-ngebul-dari-restoran-di-lg</t>
+          <t>https://www.cnnindonesia.com/nasional/20230422120940-20-940887/kebakaran-hanguskan-290-rumah-di-muara-angke-diduga-dari-korsleting</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2019/12/03/8475b1f4-5e67-4883-9ac9-9977d5f458c1_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/22/kebakaran-muara-angke_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>VIDEO: Momen Evakuasi Pengunjung saat Kebakaran di Senayan City</t>
+          <t>7 Rumah di Surabaya Terbakar di Malam Takbiran</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420194025-24-940355/video-momen-evakuasi-pengunjung-saat-kebakaran-di-senayan-city</t>
+          <t>https://www.cnnindonesia.com/nasional/20230421205151-20-940763/7-rumah-di-surabaya-terbakar-di-malam-takbiran</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/20/thumbnail-video-8_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2017/01/29/b05d3386-af33-4f1e-91fa-3c0f499dc9b0_169.jpg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kebakaran Senayan City, Pengunjung Berlarian ke Tangga Darurat</t>
+          <t>Kebakaran di Senayan City Disebut Berasal dari Kabel Listrik</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420192709-20-940351/kebakaran-senayan-city-pengunjung-berlarian-ke-tangga-darurat</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420214441-20-940378/kebakaran-di-senayan-city-disebut-berasal-dari-kabel-listrik</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2019/10/22/0435c711-50f0-44f3-8720-eba761ac1e91_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Senayan City Kebakaran, Pengunjung Mal Dievakuasi</t>
+          <t>Kesaksian Pengunjung Senayan City: Asap Ngebul dari Restoran di LG</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230420190751-20-940346/senayan-city-kebakaran-pengunjung-mal-dievakuasi</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420201315-20-940370/kesaksian-pengunjung-senayan-city-asap-ngebul-dari-restoran-di-lg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2019/12/03/8475b1f4-5e67-4883-9ac9-9977d5f458c1_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Korban Tewas Kebakaran RS Beijing Jadi 29 Orang, Sebagian Besar Lansia</t>
+          <t>VIDEO: Momen Evakuasi Pengunjung saat Kebakaran di Senayan City</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230419154914-113-939862/korban-tewas-kebakaran-rs-beijing-jadi-29-orang-sebagian-besar-lansia</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420194025-24-940355/video-momen-evakuasi-pengunjung-saat-kebakaran-di-senayan-city</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/19/kebakaran-rumah-sakit-beijing-tewaskan-21-orang-5_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/20/thumbnail-video-8_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16 Unit Damkar Padamkan Kebakaran KM Samudra Anugrah di Surabaya</t>
+          <t>Kebakaran Senayan City, Pengunjung Berlarian ke Tangga Darurat</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230419133743-20-939789/16-unit-damkar-padamkan-kebakaran-km-samudra-anugrah-di-surabaya</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420192709-20-940351/kebakaran-senayan-city-pengunjung-berlarian-ke-tangga-darurat</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/19/km-samudra-anugrah-terbakar-saat-perbaikan-di-pt-dok-3_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/c3431b93-eae6-4ab9-aa91-1b5280978d08_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kebakaran di Rumah Sakit Beijing China, 21 Orang Tewas</t>
+          <t>Senayan City Kebakaran, Pengunjung Mal Dievakuasi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/internasional/20230418204537-113-939562/kebakaran-di-rumah-sakit-beijing-china-21-orang-tewas</t>
+          <t>https://www.cnnindonesia.com/nasional/20230420190751-20-940346/senayan-city-kebakaran-pengunjung-mal-dievakuasi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2022/10/17/ilustrasi-kebakaran_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2020/01/01/2ab612fd-1f1a-4633-829b-795f0b6f1a1d_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kebakaran Satu Rumah di Medan, 6 Orang Meninggal Dunia</t>
+          <t>Korban Tewas Kebakaran RS Beijing Jadi 29 Orang, Sebagian Besar Lansia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230418105048-20-939173/kebakaran-satu-rumah-di-medan-6-orang-meninggal-dunia</t>
+          <t>https://www.cnnindonesia.com/internasional/20230419154914-113-939862/korban-tewas-kebakaran-rs-beijing-jadi-29-orang-sebagian-besar-lansia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/18/kebakaran-rumah-di-medan-6-orang-tewas-terpanggang_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/19/kebakaran-rumah-sakit-beijing-tewaskan-21-orang-5_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VIDEO: Rumah Tingkat Terbakar, 12 Mobil Damkar Diterjunkan</t>
+          <t>16 Unit Damkar Padamkan Kebakaran KM Samudra Anugrah di Surabaya</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/tv/20230412171302-407-936902/video-rumah-tingkat-terbakar-12-mobil-damkar-diterjunkan</t>
+          <t>https://www.cnnindonesia.com/nasional/20230419133743-20-939789/16-unit-damkar-padamkan-kebakaran-km-samudra-anugrah-di-surabaya</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/12/rumah-tingkat-terbakar-12-mobil-damkar-diterjunkan_169.png?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2023/04/19/km-samudra-anugrah-terbakar-saat-perbaikan-di-pt-dok-3_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Resto Ayam Geprek di Tebet Kebakaran Usai Penggantian Tabung Gas</t>
+          <t>Kebakaran di Rumah Sakit Beijing China, 21 Orang Tewas</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.cnnindonesia.com/nasional/20230410224432-20-935934/resto-ayam-geprek-di-tebet-kebakaran-usai-penggantian-tabung-gas</t>
+          <t>https://www.cnnindonesia.com/internasional/20230418204537-113-939562/kebakaran-di-rumah-sakit-beijing-china-21-orang-tewas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://akcdn.detik.net.id/visual/2023/04/10/kebakaran-di-tebet-1_169.jpeg?w=280&amp;q=90</t>
+          <t>https://akcdn.detik.net.id/visual/2022/10/17/ilustrasi-kebakaran_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>
